--- a/test-data/login.xlsx
+++ b/test-data/login.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">invalid</t>
   </si>
   <si>
-    <t xml:space="preserve">                                           </t>
+    <t xml:space="preserve">          s                                 </t>
   </si>
   <si>
     <t xml:space="preserve">' OR '1'='1' --</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">&lt;h1&gt;labas&lt;/h1&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+    <t xml:space="preserve">aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
   </si>
 </sst>
 </file>
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -110,12 +110,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -169,7 +163,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,11 +184,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,10 +269,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.7"/>
@@ -357,15 +347,15 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
+      <c r="A11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/test-data/login.xlsx
+++ b/test-data/login.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <t xml:space="preserve">murashka.arturas@gmail.com</t>
+    <t xml:space="preserve">***</t>
   </si>
   <si>
     <t xml:space="preserve">invalid</t>
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -103,6 +103,12 @@
       <name val="Consolas"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -163,7 +169,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -181,10 +187,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -269,10 +279,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.7"/>
@@ -312,7 +322,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -320,15 +330,15 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -336,7 +346,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -344,7 +354,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -352,24 +362,15 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="murashka.arturas@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="murashka.arturas@gmail.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="murashka.arturas@gmail.com"/>
-    <hyperlink ref="A5" r:id="rId4" display="murashka.arturas@gmail.com"/>
-    <hyperlink ref="A6" r:id="rId5" display="murashka.arturas@gmail.com"/>
-    <hyperlink ref="B6" r:id="rId6" display="&lt;script&gt;alert('hi');&lt;/script&gt;"/>
-    <hyperlink ref="A7" r:id="rId7" display="murashka.arturas@gmail.com"/>
-    <hyperlink ref="B7" r:id="rId8" display="murashka.arturas@gmail.com"/>
-    <hyperlink ref="A8" r:id="rId9" display="murashka.arturas@gmail.com"/>
-    <hyperlink ref="A9" r:id="rId10" display="murashka.arturas@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="&lt;script&gt;alert('hi');&lt;/script&gt;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
